--- a/biology/Zoologie/Agrion_jouvencelle/Agrion_jouvencelle.xlsx
+++ b/biology/Zoologie/Agrion_jouvencelle/Agrion_jouvencelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenagrion puella
-L’agrion jouvencelle (Coenagrion puella) est une espèce d'insectes odonates zygoptères (demoiselles) de la famille des Coenagrionidae et du genre Coenagrion. Elle est commune dans la plupart des pays d’Europe[1]. 
+L’agrion jouvencelle (Coenagrion puella) est une espèce d'insectes odonates zygoptères (demoiselles) de la famille des Coenagrionidae et du genre Coenagrion. Elle est commune dans la plupart des pays d’Europe. 
 </t>
         </is>
       </c>
@@ -512,84 +524,229 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en 1758 par le naturaliste suédois Carl von Linné sous le nom initial de Libellula puella[2].
-Synonymie
-Libellula puella (Linnaeus, 1758) Protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1758 par le naturaliste suédois Carl von Linné sous le nom initial de Libellula puella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Libellula puella (Linnaeus, 1758) Protonyme
 Agrion furcatum (Charpentier, 1825)
-Agrion puella (Fabricius)
-Noms vernaculaires
-En français
-L'agrion jouvencelle, l'agrion fillette[3], l'amélie[4], la libellule amélie[5], la sophie[6].
+Agrion puella (Fabricius)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français
+L'agrion jouvencelle, l'agrion fillette, l'amélie, la libellule amélie, la sophie.
 En anglais
 Azure Damselfly
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Agrion_jouvencelle</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle ressemble assez fortement à l'agrion porte-coupe. Elle mesure environ 35 mm de long.
-Mâle adulte
-Le mâle adulte a un abdomen bleu clair, avec des marques noires. La marque sur le 2e segment S2 est en forme de U[7]. Les segments 3 à 5 sont bleus avec une bande noire au bout du segment. Le segment six a un motif semblable mais avec moins de bleu et le segment sept est presque entièrement noir, avec seulement une fine bande bleue à la base. Le segment huit et la plus grande partie du segment neuf sont bleu ciel et forment un fort contraste. Une tache noire est cependant visible sur le dessus du segment neuf. 
-Femelle adulte
-La femelle adulte a des marques semblables à celles du mâle, mais avec une couleur verdâtre au lieu du bleue. Elle a une fine bande noire ininterrompue le long de l'abdomen.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Agrion_jouvencelle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mâle adulte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle adulte a un abdomen bleu clair, avec des marques noires. La marque sur le 2e segment S2 est en forme de U. Les segments 3 à 5 sont bleus avec une bande noire au bout du segment. Le segment six a un motif semblable mais avec moins de bleu et le segment sept est presque entièrement noir, avec seulement une fine bande bleue à la base. Le segment huit et la plus grande partie du segment neuf sont bleu ciel et forment un fort contraste. Une tache noire est cependant visible sur le dessus du segment neuf. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Femelle adulte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle adulte a des marques semblables à celles du mâle, mais avec une couleur verdâtre au lieu du bleue. Elle a une fine bande noire ininterrompue le long de l'abdomen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrion_jouvencelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve l'insecte près des mares et ruisseaux à faible débit. On peut observer des adultes dans la position typique d'accouplement, non loin des mares, étangs ou lacs. La ponte a généralement lieu en juillet. La femelle dépose ses œufs dans des plantes aquatiques[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve l'insecte près des mares et ruisseaux à faible débit. On peut observer des adultes dans la position typique d'accouplement, non loin des mares, étangs ou lacs. La ponte a généralement lieu en juillet. La femelle dépose ses œufs dans des plantes aquatiques.
 Les adultes volent de mai à septembre.
 </t>
         </is>
